--- a/export/PCA, models.xlsx
+++ b/export/PCA, models.xlsx
@@ -8,27 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carabidae_2025\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C5B819-7273-4EA4-98B9-2A8E615510B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DD403A-F193-4498-91CC-066666F709A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data4zones" sheetId="1" r:id="rId1"/>
+    <sheet name="data3zones" sheetId="2" r:id="rId2"/>
+    <sheet name="factor_loads4zones" sheetId="3" r:id="rId3"/>
+    <sheet name="factor_loads3zones" sheetId="4" r:id="rId4"/>
+    <sheet name="linear4zone" sheetId="5" r:id="rId5"/>
+    <sheet name="linear3zone" sheetId="6" r:id="rId6"/>
+    <sheet name="nonlinear4zone" sheetId="7" r:id="rId7"/>
+    <sheet name="nonlinear3zone" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
-  <si>
-    <t>barren</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>incl</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="42">
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>PC12</t>
   </si>
   <si>
     <t>abu</t>
@@ -43,31 +53,106 @@
     <t>shan</t>
   </si>
   <si>
-    <t>excl</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>r2.adj</t>
-  </si>
-  <si>
-    <t>SE</t>
+    <t>K01S</t>
+  </si>
+  <si>
+    <t>K04S</t>
+  </si>
+  <si>
+    <t>K05N</t>
+  </si>
+  <si>
+    <t>K09S</t>
+  </si>
+  <si>
+    <t>K11N</t>
+  </si>
+  <si>
+    <t>K12S</t>
+  </si>
+  <si>
+    <t>K18N</t>
+  </si>
+  <si>
+    <t>K26S</t>
+  </si>
+  <si>
+    <t>K27S</t>
+  </si>
+  <si>
+    <t>K32N</t>
+  </si>
+  <si>
+    <t>factors</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>n_stems</t>
+  </si>
+  <si>
+    <t>mean_height</t>
+  </si>
+  <si>
+    <t>cut_area</t>
+  </si>
+  <si>
+    <t>dead_wood</t>
+  </si>
+  <si>
+    <t>grass_n.spec025</t>
+  </si>
+  <si>
+    <t>plant_cover</t>
+  </si>
+  <si>
+    <t>moss_n.spec006</t>
+  </si>
+  <si>
+    <t>moss_cover</t>
+  </si>
+  <si>
+    <t>shrub_cover</t>
+  </si>
+  <si>
+    <t>shrub_n.spec006</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>coefficient</t>
   </si>
   <si>
     <t>Estimate</t>
   </si>
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>PC1^2</t>
+    <t>Std. Error</t>
+  </si>
+  <si>
+    <t>t value</t>
+  </si>
+  <si>
+    <t>Pr(&gt;|t|)</t>
+  </si>
+  <si>
+    <t>r2adj</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
   </si>
 </sst>
 </file>
@@ -454,350 +539,3102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>-5.4368224441781896</v>
+      </c>
+      <c r="D2">
+        <v>29.559038289519709</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>-5.4643019060229232</v>
+      </c>
+      <c r="D3">
+        <v>29.858595320165751</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>-2.8717830263358421</v>
+      </c>
+      <c r="D4">
+        <v>8.247137750350646</v>
+      </c>
+      <c r="E4">
+        <v>196</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>3.9442870800928058</v>
+      </c>
+      <c r="H4">
+        <v>0.94692354037584259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>-2.4769247928272859</v>
+      </c>
+      <c r="D5">
+        <v>6.1351564293224961</v>
+      </c>
+      <c r="E5">
+        <v>512</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>3.970842082521834</v>
+      </c>
+      <c r="H5">
+        <v>1.1716329172135509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>-2.5719290533569268</v>
+      </c>
+      <c r="D6">
+        <v>6.6148190555014601</v>
+      </c>
+      <c r="E6">
+        <v>117</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>6.9990369187875254</v>
+      </c>
+      <c r="H6">
+        <v>1.547821295217755</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>-2.681582528299991</v>
+      </c>
+      <c r="D7">
+        <v>7.1908848560837741</v>
+      </c>
+      <c r="E7">
+        <v>228</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>6.7073741259172133</v>
+      </c>
+      <c r="H7">
+        <v>1.3980454168692069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>-2.9935279459885731</v>
+      </c>
+      <c r="D8">
+        <v>8.9612095634145632</v>
+      </c>
+      <c r="E8">
+        <v>144</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>4.992097794383807</v>
+      </c>
+      <c r="H8">
+        <v>1.349291854797489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>-2.9814324847166498</v>
+      </c>
+      <c r="D9">
+        <v>8.8889396609236968</v>
+      </c>
+      <c r="E9">
+        <v>220</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>6.8994184088002646</v>
+      </c>
+      <c r="H9">
+        <v>1.285239773697826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>-0.696860362896779</v>
+      </c>
+      <c r="D10">
+        <v>0.4856143653766305</v>
+      </c>
+      <c r="E10">
+        <v>228</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>11.73825909849517</v>
+      </c>
+      <c r="H10">
+        <v>2.136162205150919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>-0.26207273306518231</v>
+      </c>
+      <c r="D11">
+        <v>6.8682117416254296E-2</v>
+      </c>
+      <c r="E11">
+        <v>512</v>
+      </c>
+      <c r="F11">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>13.2882273305726</v>
+      </c>
+      <c r="H11">
+        <v>2.1513113587163821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>-0.49164628717922543</v>
+      </c>
+      <c r="D12">
+        <v>0.24171607169711731</v>
+      </c>
+      <c r="E12">
+        <v>204</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>9.8643013223078331</v>
+      </c>
+      <c r="H12">
+        <v>1.9340490922792959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1.2754054726795041</v>
+      </c>
+      <c r="D13">
+        <v>1.626659119740828</v>
+      </c>
+      <c r="E13">
+        <v>612</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>10.778147038209459</v>
+      </c>
+      <c r="H13">
+        <v>1.905049582055252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1.3613736850155309</v>
+      </c>
+      <c r="D14">
+        <v>1.853338310252765</v>
+      </c>
+      <c r="E14">
+        <v>532</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>9.9559380878762003</v>
+      </c>
+      <c r="H14">
+        <v>1.8214270006472379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1.2264871874743959</v>
+      </c>
+      <c r="D15">
+        <v>1.5042708210388529</v>
+      </c>
+      <c r="E15">
+        <v>556</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>8.8012715388531806</v>
+      </c>
+      <c r="H15">
+        <v>1.8541267699394961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.96618510597835061</v>
+      </c>
+      <c r="D16">
+        <v>0.93351365901439665</v>
+      </c>
+      <c r="E16">
+        <v>288</v>
+      </c>
+      <c r="F16">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>13.324808261557109</v>
+      </c>
+      <c r="H16">
+        <v>2.1774632238414982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1.7271376614335741</v>
+      </c>
+      <c r="D17">
+        <v>2.9830045015422342</v>
+      </c>
+      <c r="E17">
+        <v>564</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>11.94344466113481</v>
+      </c>
+      <c r="H17">
+        <v>1.9422912978505229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1.080758242533991</v>
+      </c>
+      <c r="D18">
+        <v>1.168038378805162</v>
+      </c>
+      <c r="E18">
+        <v>336</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18">
+        <v>14.2327436046785</v>
+      </c>
+      <c r="H18">
+        <v>2.198592455410445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2.7286530889063139</v>
+      </c>
+      <c r="D19">
+        <v>7.4455476795979703</v>
+      </c>
+      <c r="E19">
+        <v>448</v>
+      </c>
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>11.83132953815428</v>
+      </c>
+      <c r="H19">
+        <v>1.7962491855846761</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1.314484052868139</v>
+      </c>
+      <c r="D20">
+        <v>1.7278683252446481</v>
+      </c>
+      <c r="E20">
+        <v>424</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>9.2025536149192941</v>
+      </c>
+      <c r="H20">
+        <v>1.667779837537031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>1.8902975955895349</v>
+      </c>
+      <c r="D21">
+        <v>3.573224999891579</v>
+      </c>
+      <c r="E21">
+        <v>380</v>
+      </c>
+      <c r="F21">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>9.2171685662847533</v>
+      </c>
+      <c r="H21">
+        <v>1.4588099166357631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2.118304018778121</v>
+      </c>
+      <c r="D22">
+        <v>4.4872119159715362</v>
+      </c>
+      <c r="E22">
+        <v>830</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="G22">
+        <v>14.844547238898331</v>
+      </c>
+      <c r="H22">
+        <v>2.0139192092346478</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2.1482722460322679</v>
+      </c>
+      <c r="D23">
+        <v>4.6150736430725274</v>
+      </c>
+      <c r="E23">
+        <v>712</v>
+      </c>
+      <c r="F23">
+        <v>19</v>
+      </c>
+      <c r="G23">
+        <v>14.39913344103863</v>
+      </c>
+      <c r="H23">
+        <v>1.9764482683173039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1.932212340244891</v>
+      </c>
+      <c r="D24">
+        <v>3.733444527794636</v>
+      </c>
+      <c r="E24">
+        <v>769.99999999999989</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>13.538381047973621</v>
+      </c>
+      <c r="H24">
+        <v>1.8708517906306481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2.33217139957687</v>
+      </c>
+      <c r="D25">
+        <v>5.4390234370043347</v>
+      </c>
+      <c r="E25">
+        <v>364</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+      <c r="G25">
+        <v>8.3743963334826503</v>
+      </c>
+      <c r="H25">
+        <v>1.7216187288105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2.474871439498163</v>
+      </c>
+      <c r="D26">
+        <v>6.1249886420437072</v>
+      </c>
+      <c r="E26">
+        <v>496</v>
+      </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+      <c r="G26">
+        <v>14.830741975844999</v>
+      </c>
+      <c r="H26">
+        <v>2.2345650483711408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2.2680085200758429</v>
+      </c>
+      <c r="D27">
+        <v>5.1438626471366167</v>
+      </c>
+      <c r="E27">
+        <v>548</v>
+      </c>
+      <c r="F27">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>11.645895976181119</v>
+      </c>
+      <c r="H27">
+        <v>2.041833438107298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>2.4950044458280671</v>
+      </c>
+      <c r="D28">
+        <v>6.2250471847018183</v>
+      </c>
+      <c r="E28">
+        <v>288</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>8.7524866412881384</v>
+      </c>
+      <c r="H28">
+        <v>1.788295408591889</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2.0194413916628111</v>
+      </c>
+      <c r="D29">
+        <v>4.0781435343610317</v>
+      </c>
+      <c r="E29">
+        <v>672</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>11.937636352543031</v>
+      </c>
+      <c r="H29">
+        <v>2.0161075950671909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>3.026342640962274</v>
+      </c>
+      <c r="D30">
+        <v>9.1587497805065148</v>
+      </c>
+      <c r="E30">
+        <v>432</v>
+      </c>
+      <c r="F30">
+        <v>14</v>
+      </c>
+      <c r="G30">
+        <v>12.21039645632157</v>
+      </c>
+      <c r="H30">
+        <v>1.936956499787398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>-4.2718805508789028</v>
+      </c>
+      <c r="D2">
+        <v>18.248963440977441</v>
+      </c>
+      <c r="E2">
+        <v>196</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>3.9442870800928058</v>
+      </c>
+      <c r="H2">
+        <v>0.94692354037584259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>-4.5869967347681682</v>
+      </c>
+      <c r="D3">
+        <v>21.040539044773841</v>
+      </c>
+      <c r="E3">
+        <v>512</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>3.970842082521834</v>
+      </c>
+      <c r="H3">
+        <v>1.1716329172135509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-3.868680470116443</v>
+      </c>
+      <c r="D4">
+        <v>14.96668857986039</v>
+      </c>
+      <c r="E4">
+        <v>117</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>6.9990369187875254</v>
+      </c>
+      <c r="H4">
+        <v>1.547821295217755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>-3.9342733067320008</v>
+      </c>
+      <c r="D5">
+        <v>15.47850645206395</v>
+      </c>
+      <c r="E5">
+        <v>228</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>6.7073741259172133</v>
+      </c>
+      <c r="H5">
+        <v>1.3980454168692069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>-4.0071994576798282</v>
+      </c>
+      <c r="D6">
+        <v>16.05764749362951</v>
+      </c>
+      <c r="E6">
+        <v>144</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>4.992097794383807</v>
+      </c>
+      <c r="H6">
+        <v>1.349291854797489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>-3.8367140758317682</v>
+      </c>
+      <c r="D7">
+        <v>14.72037489968562</v>
+      </c>
+      <c r="E7">
+        <v>220</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>6.8994184088002646</v>
+      </c>
+      <c r="H7">
+        <v>1.285239773697826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>-1.3706304770666411</v>
+      </c>
+      <c r="D8">
+        <v>1.878627904663928</v>
+      </c>
+      <c r="E8">
+        <v>228</v>
+      </c>
+      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>11.73825909849517</v>
+      </c>
+      <c r="H8">
+        <v>2.136162205150919</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>-1.4683854192764629</v>
+      </c>
+      <c r="D9">
+        <v>2.1561557395437152</v>
+      </c>
+      <c r="E9">
+        <v>512</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>13.2882273305726</v>
+      </c>
+      <c r="H9">
+        <v>2.1513113587163821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>-1.140383578362536</v>
+      </c>
+      <c r="D10">
+        <v>1.300474705798943</v>
+      </c>
+      <c r="E10">
+        <v>204</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>9.8643013223078331</v>
+      </c>
+      <c r="H10">
+        <v>1.9340490922792959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2.8637045486179E-2</v>
+      </c>
+      <c r="D11">
+        <v>8.2008037417748505E-4</v>
+      </c>
+      <c r="E11">
+        <v>612</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>10.778147038209459</v>
+      </c>
+      <c r="H11">
+        <v>1.905049582055252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0.64503582888952282</v>
+      </c>
+      <c r="D12">
+        <v>0.41607122055119378</v>
+      </c>
+      <c r="E12">
+        <v>532</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>9.9559380878762003</v>
+      </c>
+      <c r="H12">
+        <v>1.8214270006472379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0.36335680153497513</v>
+      </c>
+      <c r="D13">
+        <v>0.13202816522172731</v>
+      </c>
+      <c r="E13">
+        <v>556</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>8.8012715388531806</v>
+      </c>
+      <c r="H13">
+        <v>1.8541267699394961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0.70879977480717793</v>
+      </c>
+      <c r="D14">
+        <v>0.50239712076670617</v>
+      </c>
+      <c r="E14">
+        <v>288</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>13.324808261557109</v>
+      </c>
+      <c r="H14">
+        <v>2.1774632238414982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0.4895791584180828</v>
+      </c>
+      <c r="D15">
+        <v>0.2396877523573582</v>
+      </c>
+      <c r="E15">
+        <v>564</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>11.94344466113481</v>
+      </c>
+      <c r="H15">
+        <v>1.9422912978505229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0.15246616037997471</v>
+      </c>
+      <c r="D16">
+        <v>2.3245930061012159E-2</v>
+      </c>
+      <c r="E16">
+        <v>336</v>
+      </c>
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>14.2327436046785</v>
+      </c>
+      <c r="H16">
+        <v>2.198592455410445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1.8277146363701771</v>
+      </c>
+      <c r="D17">
+        <v>3.340540792001768</v>
+      </c>
+      <c r="E17">
+        <v>448</v>
+      </c>
+      <c r="F17">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>11.83132953815428</v>
+      </c>
+      <c r="H17">
+        <v>1.7962491855846761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1.380989696906193</v>
+      </c>
+      <c r="D18">
+        <v>1.9071325429610591</v>
+      </c>
+      <c r="E18">
+        <v>424</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>9.2025536149192941</v>
+      </c>
+      <c r="H18">
+        <v>1.667779837537031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>1.843943310710092</v>
+      </c>
+      <c r="D19">
+        <v>3.4001269331124941</v>
+      </c>
+      <c r="E19">
+        <v>380</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>9.2171685662847533</v>
+      </c>
+      <c r="H19">
+        <v>1.4588099166357631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2.0063614624702768</v>
+      </c>
+      <c r="D20">
+        <v>4.0254863180858678</v>
+      </c>
+      <c r="E20">
+        <v>830</v>
+      </c>
+      <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>14.844547238898331</v>
+      </c>
+      <c r="H20">
+        <v>2.0139192092346478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1.77118390452278</v>
+      </c>
+      <c r="D21">
+        <v>3.13709242364056</v>
+      </c>
+      <c r="E21">
+        <v>712</v>
+      </c>
+      <c r="F21">
+        <v>19</v>
+      </c>
+      <c r="G21">
+        <v>14.39913344103863</v>
+      </c>
+      <c r="H21">
+        <v>1.9764482683173039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>2.124880514556204</v>
+      </c>
+      <c r="D22">
+        <v>4.5151172011406402</v>
+      </c>
+      <c r="E22">
+        <v>769.99999999999989</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <v>13.538381047973621</v>
+      </c>
+      <c r="H22">
+        <v>1.8708517906306481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2.8113155587422169</v>
+      </c>
+      <c r="D23">
+        <v>7.9034951708260639</v>
+      </c>
+      <c r="E23">
+        <v>364</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23">
+        <v>8.3743963334826503</v>
+      </c>
+      <c r="H23">
+        <v>1.7216187288105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>3.0363326448600092</v>
+      </c>
+      <c r="D24">
+        <v>9.2193159302425762</v>
+      </c>
+      <c r="E24">
+        <v>496</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
+      <c r="G24">
+        <v>14.830741975844999</v>
+      </c>
+      <c r="H24">
+        <v>2.2345650483711408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2.438879367964327</v>
+      </c>
+      <c r="D25">
+        <v>5.9481325714820779</v>
+      </c>
+      <c r="E25">
+        <v>548</v>
+      </c>
+      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>11.645895976181119</v>
+      </c>
+      <c r="H25">
+        <v>2.041833438107298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2.169745619236231</v>
+      </c>
+      <c r="D26">
+        <v>4.7077960521948157</v>
+      </c>
+      <c r="E26">
+        <v>288</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>8.7524866412881384</v>
+      </c>
+      <c r="H26">
+        <v>1.788295408591889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1.945248256716964</v>
+      </c>
+      <c r="D27">
+        <v>3.7839907802603872</v>
+      </c>
+      <c r="E27">
+        <v>672</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>11.937636352543031</v>
+      </c>
+      <c r="H27">
+        <v>2.0161075950671909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>2.740674328141365</v>
+      </c>
+      <c r="D28">
+        <v>7.5112957729331251</v>
+      </c>
+      <c r="E28">
+        <v>432</v>
+      </c>
+      <c r="F28">
+        <v>14</v>
+      </c>
+      <c r="G28">
+        <v>12.21039645632157</v>
+      </c>
+      <c r="H28">
+        <v>1.936956499787398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0.313</v>
+      </c>
+      <c r="C3">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="C4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>0.127</v>
+      </c>
+      <c r="C5">
+        <v>-5.5E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="C6">
+        <v>-0.19600000000000001</v>
+      </c>
+      <c r="D6">
+        <v>-0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="C7">
+        <v>-0.24199999999999999</v>
+      </c>
+      <c r="D7">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C9">
+        <v>0.54</v>
+      </c>
+      <c r="D9">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>0.183</v>
+      </c>
+      <c r="C10">
+        <v>0.35</v>
+      </c>
+      <c r="D10">
+        <v>-0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D11">
+        <v>-0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>-0.35799999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.161</v>
+      </c>
+      <c r="D12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>-0.34899999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.191</v>
+      </c>
+      <c r="D13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>-0.35499999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="D14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:B14">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CF6E039E-0920-4F15-87D1-C7443F2175CB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C14">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{67E6578F-AA30-4F18-A376-2C3EC4557454}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D14">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{712C65A1-0F17-4645-BCBF-FA76ED08E224}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CF6E039E-0920-4F15-87D1-C7443F2175CB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:B14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{67E6578F-AA30-4F18-A376-2C3EC4557454}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C2:C14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{712C65A1-0F17-4645-BCBF-FA76ED08E224}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D14</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="D2">
+        <v>-0.35799999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="C3">
+        <v>-0.192</v>
+      </c>
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.112</v>
+      </c>
+      <c r="D4">
+        <v>-0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C5">
+        <v>-0.193</v>
+      </c>
+      <c r="D5">
+        <v>0.24199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>0.372</v>
+      </c>
+      <c r="C6">
+        <v>-3.1E-2</v>
+      </c>
+      <c r="D6">
+        <v>-3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>0.378</v>
+      </c>
+      <c r="C7">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>-0.13600000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.309</v>
+      </c>
+      <c r="D9">
+        <v>0.54100000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>0.128</v>
+      </c>
+      <c r="C10">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D10">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>0.188</v>
+      </c>
+      <c r="C11">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D11">
+        <v>-0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>-0.38700000000000001</v>
+      </c>
+      <c r="C12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D12">
+        <v>-3.1E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="C13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D13">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>-0.38900000000000001</v>
+      </c>
+      <c r="C14">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="D14">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>395.72</v>
+      </c>
+      <c r="D2">
+        <v>31.71</v>
+      </c>
+      <c r="E2">
+        <v>12.48</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>46.49</v>
+      </c>
+      <c r="D3">
+        <v>12.14</v>
+      </c>
+      <c r="E3">
+        <v>3.83</v>
+      </c>
+      <c r="F3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>11.07</v>
+      </c>
+      <c r="D4">
+        <v>0.65</v>
+      </c>
+      <c r="E4">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="D5">
+        <v>0.25</v>
+      </c>
+      <c r="E5">
+        <v>5.2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="D6">
+        <v>0.45</v>
+      </c>
+      <c r="E6">
+        <v>21.18</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0.92</v>
+      </c>
+      <c r="D7">
+        <v>0.17</v>
+      </c>
+      <c r="E7">
+        <v>5.31</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>1.72</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.09</v>
+      </c>
+      <c r="D9">
+        <v>0.02</v>
+      </c>
+      <c r="E9">
+        <v>4.71</v>
+      </c>
+      <c r="F9">
+        <v>1E-4</v>
+      </c>
+      <c r="G9">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>395.72</v>
+      </c>
+      <c r="D2">
+        <v>31.71</v>
+      </c>
+      <c r="E2">
+        <v>12.48</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>46.49</v>
+      </c>
+      <c r="D3">
+        <v>12.14</v>
+      </c>
+      <c r="E3">
+        <v>3.83</v>
+      </c>
+      <c r="F3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="G3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>11.07</v>
+      </c>
+      <c r="D4">
+        <v>0.65</v>
+      </c>
+      <c r="E4">
+        <v>16.940000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1.3</v>
+      </c>
+      <c r="D5">
+        <v>0.25</v>
+      </c>
+      <c r="E5">
+        <v>5.2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="D6">
+        <v>0.45</v>
+      </c>
+      <c r="E6">
+        <v>21.18</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0.92</v>
+      </c>
+      <c r="D7">
+        <v>0.17</v>
+      </c>
+      <c r="E7">
+        <v>5.31</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>1.72</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.09</v>
+      </c>
+      <c r="D9">
+        <v>0.02</v>
+      </c>
+      <c r="E9">
+        <v>4.71</v>
+      </c>
+      <c r="F9">
+        <v>1E-4</v>
+      </c>
+      <c r="G9">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>446.07</v>
+      </c>
+      <c r="D2">
+        <v>59.47</v>
+      </c>
+      <c r="E2">
+        <v>7.5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>42.86</v>
+      </c>
+      <c r="D3">
+        <v>12.67</v>
+      </c>
+      <c r="E3">
+        <v>3.38</v>
+      </c>
+      <c r="F3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>42.4</v>
-      </c>
-      <c r="E2">
-        <v>12.2</v>
-      </c>
-      <c r="F2">
-        <v>3.5</v>
-      </c>
-      <c r="G2">
-        <v>2E-3</v>
-      </c>
-      <c r="H2">
-        <v>0.50700000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C4">
+        <v>-6.99</v>
+      </c>
+      <c r="D4">
+        <v>6.98</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>13.01</v>
+      </c>
+      <c r="D5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E5">
+        <v>11.21</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+      <c r="E6">
+        <v>4.7</v>
+      </c>
+      <c r="F6">
+        <v>1E-4</v>
+      </c>
+      <c r="G6">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>-3.7</v>
-      </c>
-      <c r="E3">
-        <v>3.6</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
-        <v>0.315</v>
-      </c>
-      <c r="H3">
-        <v>0.50700000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.2</v>
-      </c>
-      <c r="F4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G4">
+      <c r="C7">
+        <v>-0.27</v>
+      </c>
+      <c r="D7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7">
+        <v>-1.98</v>
+      </c>
+      <c r="F7">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>11.21</v>
+      </c>
+      <c r="D8">
+        <v>0.78</v>
+      </c>
+      <c r="E8">
+        <v>14.35</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0.65800000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>-0.1</v>
-      </c>
-      <c r="E5">
-        <v>0.1</v>
-      </c>
-      <c r="F5">
-        <v>-1.5</v>
-      </c>
-      <c r="G5">
-        <v>0.158</v>
-      </c>
-      <c r="H5">
-        <v>0.65800000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>0.8</v>
-      </c>
-      <c r="E6">
-        <v>0.2</v>
-      </c>
-      <c r="F6">
-        <v>4.8</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0.72399999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>-0.1</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="G8">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.81</v>
+      </c>
+      <c r="D9">
+        <v>0.17</v>
+      </c>
+      <c r="E9">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F9">
+        <v>1E-4</v>
+      </c>
+      <c r="G9">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>-0.22</v>
+      </c>
+      <c r="D10">
+        <v>0.09</v>
+      </c>
+      <c r="E10">
         <v>-2.4</v>
       </c>
-      <c r="G7">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="H7">
-        <v>0.72399999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>0.1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0.873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>-7</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0.873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F10">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>1.95</v>
       </c>
       <c r="D11">
-        <v>46.5</v>
+        <v>0.08</v>
       </c>
       <c r="E11">
-        <v>12.1</v>
+        <v>24.84</v>
       </c>
       <c r="F11">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1E-3</v>
-      </c>
-      <c r="H11">
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12">
-        <v>1.3</v>
+        <v>0.02</v>
       </c>
       <c r="E12">
-        <v>0.3</v>
+        <v>4.41</v>
       </c>
       <c r="F12">
-        <v>5.2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0.501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>-0.03</v>
+      </c>
+      <c r="D13">
+        <v>0.01</v>
+      </c>
+      <c r="E13">
+        <v>-3.43</v>
+      </c>
+      <c r="F13">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="G13">
+        <v>0.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>446.07</v>
+      </c>
+      <c r="D2">
+        <v>59.47</v>
+      </c>
+      <c r="E2">
+        <v>7.5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>42.86</v>
+      </c>
+      <c r="D3">
+        <v>12.67</v>
+      </c>
+      <c r="E3">
+        <v>3.38</v>
+      </c>
+      <c r="F3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-6.99</v>
+      </c>
+      <c r="D4">
+        <v>6.98</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>0.32679999999999998</v>
+      </c>
+      <c r="G4">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>13.01</v>
+      </c>
+      <c r="D5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E5">
+        <v>11.21</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+      <c r="E6">
+        <v>4.7</v>
+      </c>
+      <c r="F6">
+        <v>1E-4</v>
+      </c>
+      <c r="G6">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>-0.27</v>
+      </c>
+      <c r="D7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E7">
+        <v>-1.98</v>
+      </c>
+      <c r="F7">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>11.21</v>
+      </c>
+      <c r="D8">
+        <v>0.78</v>
+      </c>
+      <c r="E8">
+        <v>14.35</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.81</v>
+      </c>
+      <c r="D9">
+        <v>0.17</v>
+      </c>
+      <c r="E9">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F9">
+        <v>1E-4</v>
+      </c>
+      <c r="G9">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>-0.22</v>
+      </c>
+      <c r="D10">
+        <v>0.09</v>
+      </c>
+      <c r="E10">
+        <v>-2.4</v>
+      </c>
+      <c r="F10">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>1.95</v>
+      </c>
+      <c r="D11">
+        <v>0.08</v>
+      </c>
+      <c r="E11">
+        <v>24.84</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.02</v>
+      </c>
+      <c r="E12">
+        <v>4.41</v>
+      </c>
+      <c r="F12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G12">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>-0.03</v>
       </c>
       <c r="D13">
-        <v>0.9</v>
+        <v>0.01</v>
       </c>
       <c r="E13">
-        <v>0.2</v>
+        <v>-3.43</v>
       </c>
       <c r="F13">
-        <v>5.3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0.51100000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>4.7</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0.44900000000000001</v>
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
